--- a/output/missing-values-income_total.xlsx
+++ b/output/missing-values-income_total.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
   <si>
     <t xml:space="preserve">pid</t>
   </si>
@@ -74,6 +74,9 @@
     <t xml:space="preserve">TSH0018</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0019</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0020</t>
   </si>
   <si>
@@ -101,6 +104,12 @@
     <t xml:space="preserve">TSH0043</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0073</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0100</t>
   </si>
   <si>
@@ -116,12 +125,24 @@
     <t xml:space="preserve">TSH0204</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0292</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0293</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0297</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0315</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0353</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0364</t>
   </si>
   <si>
@@ -182,6 +203,9 @@
     <t xml:space="preserve">TSH0694</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0697</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0713</t>
   </si>
   <si>
@@ -203,6 +227,15 @@
     <t xml:space="preserve">TSH0787</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0824</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0828</t>
   </si>
   <si>
@@ -215,6 +248,9 @@
     <t xml:space="preserve">TSH0871</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0874</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0875</t>
   </si>
   <si>
@@ -230,6 +266,12 @@
     <t xml:space="preserve">TSH0912</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0942</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0944</t>
   </si>
   <si>
@@ -311,6 +353,9 @@
     <t xml:space="preserve">TSH1319</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1339</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1361</t>
   </si>
   <si>
@@ -350,9 +395,21 @@
     <t xml:space="preserve">TSH1626</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1660</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1716</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1784</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1796</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1803</t>
   </si>
   <si>
@@ -365,13 +422,13 @@
     <t xml:space="preserve">TSH1812</t>
   </si>
   <si>
-    <t xml:space="preserve">TSH1820</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TSH1822</t>
+    <t xml:space="preserve">TSH1823</t>
   </si>
   <si>
     <t xml:space="preserve">TSH1845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1876</t>
   </si>
   <si>
     <t xml:space="preserve">TSH1916</t>
@@ -878,7 +935,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B28"/>
     </row>
@@ -902,7 +959,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B32"/>
     </row>
@@ -914,7 +971,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B34"/>
     </row>
@@ -1493,6 +1550,120 @@
         <v>122</v>
       </c>
       <c r="B130"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>123</v>
+      </c>
+      <c r="B131"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>124</v>
+      </c>
+      <c r="B132"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>125</v>
+      </c>
+      <c r="B133"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>126</v>
+      </c>
+      <c r="B134"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>127</v>
+      </c>
+      <c r="B135"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>128</v>
+      </c>
+      <c r="B136"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>129</v>
+      </c>
+      <c r="B137"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>130</v>
+      </c>
+      <c r="B138"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>131</v>
+      </c>
+      <c r="B139"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>132</v>
+      </c>
+      <c r="B140"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>133</v>
+      </c>
+      <c r="B141"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>134</v>
+      </c>
+      <c r="B142"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>135</v>
+      </c>
+      <c r="B143"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>136</v>
+      </c>
+      <c r="B144"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>137</v>
+      </c>
+      <c r="B145"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>138</v>
+      </c>
+      <c r="B146"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>139</v>
+      </c>
+      <c r="B147"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>140</v>
+      </c>
+      <c r="B148"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>141</v>
+      </c>
+      <c r="B149"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
